--- a/JAPN/JAPN.xlsx
+++ b/JAPN/JAPN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V5"/>
+  <dimension ref="A1:Y5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,10 +539,25 @@
           <t>FTES</t>
         </is>
       </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Potential FTEF</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>FTEF</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Efficiency</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -556,7 +571,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Regular Session (1/10/2022 - 5/20/2022)</t>
+          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -585,7 +600,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K2" t="n">
         <v>30</v>
@@ -602,17 +617,13 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Wait List</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -633,18 +644,23 @@
           <t>Books</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>Remote Course</t>
-        </is>
-      </c>
+      <c r="U2" t="inlineStr"/>
       <c r="V2" t="n">
+        <v>4.166666666666666</v>
+      </c>
+      <c r="W2" t="n">
         <v>5</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>12.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -658,7 +674,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Regular Session (1/10/2022 - 5/20/2022)</t>
+          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -675,7 +691,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K3" t="n">
         <v>30</v>
@@ -692,13 +708,13 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -725,12 +741,21 @@
         </is>
       </c>
       <c r="V3" t="n">
-        <v>4.5</v>
+        <v>4</v>
+      </c>
+      <c r="W3" t="n">
+        <v>5</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -744,7 +769,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Regular Session (1/10/2022 - 5/20/2022)</t>
+          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -761,7 +786,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="K4" t="n">
         <v>30</v>
@@ -778,18 +803,18 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>20</t>
         </is>
       </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>Dealba-Yount, C</t>
+          <t>Ketenchian, G</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -811,12 +836,21 @@
         </is>
       </c>
       <c r="V4" t="n">
-        <v>4.666666666666666</v>
+        <v>1.666666666666667</v>
+      </c>
+      <c r="W4" t="n">
+        <v>5</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -830,7 +864,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Regular Session (1/10/2022 - 5/20/2022)</t>
+          <t>Regular Session (1/9/2023 - 5/19/2023)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -847,7 +881,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="K5" t="n">
         <v>25</v>
@@ -864,13 +898,13 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Contact Instructor</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -897,7 +931,16 @@
         </is>
       </c>
       <c r="V5" t="n">
-        <v>3.666666666666667</v>
+        <v>2.666666666666667</v>
+      </c>
+      <c r="W5" t="n">
+        <v>4.166666666666666</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/JAPN/JAPN.xlsx
+++ b/JAPN/JAPN.xlsx
@@ -557,7 +557,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K3" t="n">
         <v>30</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="O3" t="inlineStr"/>
@@ -741,7 +741,7 @@
         </is>
       </c>
       <c r="V3" t="n">
-        <v>4</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="W3" t="n">
         <v>5</v>
@@ -750,12 +750,12 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="Y3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K4" t="n">
         <v>30</v>
@@ -803,7 +803,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>17</t>
         </is>
       </c>
       <c r="O4" t="inlineStr"/>
@@ -836,7 +836,7 @@
         </is>
       </c>
       <c r="V4" t="n">
-        <v>1.666666666666667</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="W4" t="n">
         <v>5</v>
@@ -845,12 +845,12 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="Y4" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K5" t="n">
         <v>25</v>
@@ -898,7 +898,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6</t>
         </is>
       </c>
       <c r="O5" t="inlineStr"/>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="V5" t="n">
-        <v>2.666666666666667</v>
+        <v>3.166666666666667</v>
       </c>
       <c r="W5" t="n">
         <v>4.166666666666666</v>
@@ -940,7 +940,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="Y5" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
     </row>
   </sheetData>
